--- a/outputs_HGR/p__Proteobacteria.xlsx
+++ b/outputs_HGR/p__Proteobacteria.xlsx
@@ -3802,7 +3802,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>

--- a/outputs_HGR/p__Proteobacteria.xlsx
+++ b/outputs_HGR/p__Proteobacteria.xlsx
@@ -862,7 +862,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -9227,7 +9227,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>c__Betaproteobacteria</t>
+          <t>c__Betaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
